--- a/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4196472609421313</v>
+        <v>0.4149596085125992</v>
       </c>
       <c r="C11" t="n">
-        <v>1.493559234135172</v>
+        <v>1.479920100286482</v>
       </c>
       <c r="D11" t="n">
-        <v>2.31316178067137</v>
+        <v>2.349022646928298</v>
       </c>
     </row>
     <row r="12">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.078168548058296e-06</v>
+        <v>0.5463381731494634</v>
       </c>
       <c r="C13" t="n">
-        <v>1.685153374479802e-05</v>
+        <v>1.912434678051219</v>
       </c>
       <c r="D13" t="n">
-        <v>4.632413681621281e-05</v>
+        <v>2.605393328338978</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4149596085125992</v>
+        <v>0.3875708833557571</v>
       </c>
       <c r="C11" t="n">
-        <v>1.479920100286482</v>
+        <v>1.40819398001642</v>
       </c>
       <c r="D11" t="n">
-        <v>2.349022646928298</v>
+        <v>2.154663775561342</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02098790329910724</v>
+        <v>0.01364410503585241</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08009281512853421</v>
+        <v>0.05247602323154152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1142118886936914</v>
+        <v>0.07964588885656355</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5463381731494634</v>
+        <v>0.6615587310082948</v>
       </c>
       <c r="C13" t="n">
-        <v>1.912434678051219</v>
+        <v>2.392669698244836</v>
       </c>
       <c r="D13" t="n">
-        <v>2.605393328338978</v>
+        <v>3.149874655036224</v>
       </c>
     </row>
   </sheetData>
